--- a/Input/niba_V1.xlsx
+++ b/Input/niba_V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd1a17303fcb2a19/Documentos/RWTH/Semester 4 (SS25)/MA/Modelle/(Model-1)_04_Separator Model_Henschke/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Projekte\MA-Model_1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{3D94B314-A0E8-4B85-9ECF-1D48EFF7D7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{967CDA2E-C0B2-4B77-9A76-6930A5180BA8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B607C9-183C-42AB-AEB3-28529BA5A61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSim" sheetId="1" r:id="rId1"/>
@@ -975,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699D260-C33C-419A-8D47-B7774150F38A}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C8D33A-7D60-41F1-8E76-471890D6F029}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,10 +1133,10 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="J2">
-        <v>3.4720309999999997E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="K2">
-        <v>0.21173330000000001</v>
+        <v>0.23866000000000001</v>
       </c>
       <c r="L2">
         <v>0.2</v>
